--- a/audio/lrspeech/report/IR.xlsx
+++ b/audio/lrspeech/report/IR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="16200" activeTab="2"/>
+    <workbookView windowHeight="16200"/>
   </bookViews>
   <sheets>
     <sheet name="Overview Summary" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Acronym!$A$1:$K$308</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -7592,10 +7592,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -7692,29 +7692,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7728,6 +7706,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -7736,8 +7743,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -7745,14 +7769,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -7782,13 +7798,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -7796,33 +7806,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7835,8 +7827,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7895,6 +7895,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -7907,31 +7937,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7943,7 +7949,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7961,13 +7967,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7979,7 +8003,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7991,13 +8021,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8009,31 +8045,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8045,13 +8057,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8063,19 +8075,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8163,6 +8163,39 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -8198,41 +8231,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -8250,153 +8248,155 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10657,8 +10657,8 @@
   <sheetPr/>
   <dimension ref="A1:AG109"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -11544,7 +11544,7 @@
   <sheetPr/>
   <dimension ref="A1:K308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L$1:L$1048576"/>
